--- a/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Ao longo das Épocas.xlsx
+++ b/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Ao longo das Épocas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 2\Com Tentativa 2 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357AEF8D-4A33-4835-85F7-B70A06172B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B13E02-39EF-4377-B19E-5F0D5F9AE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,6 +66,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,16 +446,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.76419401168823242</v>
+        <v>0.58395302295684814</v>
       </c>
       <c r="C2" s="2">
-        <v>0.8267853856086731</v>
+        <v>0.83626860380172729</v>
       </c>
       <c r="D2" s="2">
-        <v>0.46969950199127197</v>
+        <v>0.4835779070854187</v>
       </c>
       <c r="E2" s="2">
-        <v>0.8790697455406189</v>
+        <v>0.88062018156051636</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -462,16 +463,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.50265318155288696</v>
+        <v>0.50192940235137939</v>
       </c>
       <c r="C3" s="2">
-        <v>0.85833173990249634</v>
+        <v>0.85968649387359619</v>
       </c>
       <c r="D3" s="2">
-        <v>0.46382179856300348</v>
+        <v>0.45987734198570251</v>
       </c>
       <c r="E3" s="2">
-        <v>0.87751936912536621</v>
+        <v>0.88217055797576904</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -479,16 +480,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.48300352692604059</v>
+        <v>0.48080578446388239</v>
       </c>
       <c r="C4" s="2">
-        <v>0.86413776874542236</v>
+        <v>0.86742788553237915</v>
       </c>
       <c r="D4" s="2">
-        <v>0.45754289627075201</v>
+        <v>0.4510195255279541</v>
       </c>
       <c r="E4" s="2">
-        <v>0.88527131080627441</v>
+        <v>0.8868216872215271</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,16 +497,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.46844369173049932</v>
+        <v>0.4668673574924469</v>
       </c>
       <c r="C5" s="2">
-        <v>0.87149214744567871</v>
+        <v>0.8745887279510498</v>
       </c>
       <c r="D5" s="2">
-        <v>0.45420414209365839</v>
+        <v>0.44800424575805659</v>
       </c>
       <c r="E5" s="2">
-        <v>0.88527131080627441</v>
+        <v>0.88837206363677979</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -513,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.45723560452461243</v>
+        <v>0.45624062418937678</v>
       </c>
       <c r="C6" s="2">
-        <v>0.87749177217483521</v>
+        <v>0.87787884473800659</v>
       </c>
       <c r="D6" s="2">
-        <v>0.45322072505950928</v>
+        <v>0.44790241122245789</v>
       </c>
       <c r="E6" s="2">
-        <v>0.88372093439102173</v>
+        <v>0.88837206363677979</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -530,16 +531,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.44801831245422358</v>
+        <v>0.44731438159942633</v>
       </c>
       <c r="C7" s="2">
-        <v>0.8805883526802063</v>
+        <v>0.88136249780654907</v>
       </c>
       <c r="D7" s="2">
-        <v>0.45380225777626038</v>
+        <v>0.44931069016456598</v>
       </c>
       <c r="E7" s="2">
-        <v>0.88372093439102173</v>
+        <v>0.88837206363677979</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -547,16 +548,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>0.44002637267112732</v>
+        <v>0.43938121199607849</v>
       </c>
       <c r="C8" s="2">
-        <v>0.88407200574874878</v>
+        <v>0.8834913969039917</v>
       </c>
       <c r="D8" s="2">
-        <v>0.45524302124977112</v>
+        <v>0.45140552520751948</v>
       </c>
       <c r="E8" s="2">
-        <v>0.88992249965667725</v>
+        <v>0.89147287607192993</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -564,13 +565,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.4328344464302063</v>
+        <v>0.43209478259086609</v>
       </c>
       <c r="C9" s="2">
         <v>0.88562029600143433</v>
       </c>
       <c r="D9" s="2">
-        <v>0.45702135562896729</v>
+        <v>0.45366427302360529</v>
       </c>
       <c r="E9" s="2">
         <v>0.88992249965667725</v>
@@ -581,16 +582,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.42620158195495611</v>
+        <v>0.42527779936790472</v>
       </c>
       <c r="C10" s="2">
-        <v>0.8863944411277771</v>
+        <v>0.88736212253570557</v>
       </c>
       <c r="D10" s="2">
-        <v>0.45883065462112432</v>
+        <v>0.45580315589904791</v>
       </c>
       <c r="E10" s="2">
-        <v>0.8868216872215271</v>
+        <v>0.88992249965667725</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -598,16 +599,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.41999000310897833</v>
+        <v>0.41883754730224609</v>
       </c>
       <c r="C11" s="2">
-        <v>0.88871687650680542</v>
+        <v>0.88852334022521973</v>
       </c>
       <c r="D11" s="2">
-        <v>0.46053016185760498</v>
+        <v>0.4577089250087738</v>
       </c>
       <c r="E11" s="2">
-        <v>0.8868216872215271</v>
+        <v>0.88992249965667725</v>
       </c>
     </row>
   </sheetData>
